--- a/Experiments/Inner Product/Vector Length/combined.xlsx
+++ b/Experiments/Inner Product/Vector Length/combined.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Distributed Monitoring Thesis\Experiments\Inner Product\Vector Length\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7CC16EAF-E3F9-43FA-B885-36349A26654B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8B9641-B1C6-4958-8556-6720F8CB39DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="12465" yWindow="945" windowWidth="6870" windowHeight="4095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>LoopIndex</t>
   </si>
@@ -335,11 +343,14 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>Dimension</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2643,7 +2654,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Yuval" refreshedDate="43729.467965393516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43729.467965393516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K49" sheet="Data"/>
   </cacheSource>
@@ -3336,7 +3347,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -3742,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17379,7 +17390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17671,21 +17682,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="B12:G12"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>94</v>
